--- a/biology/Histoire de la zoologie et de la botanique/Jean_Bertrand_(agronome)/Jean_Bertrand_(agronome).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Bertrand_(agronome)/Jean_Bertrand_(agronome).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Bertrand, né à Orbe en 1708 et décédé en 1777, est un agronome et pasteur suisse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une famille originaire de Toulouse et installée en Suisse à cause de la révocation de l’Édit de Nantes, son père, Élie, est apothicaire et président du consistoire d'Orbe et sa mère se nomme Marie Faure (ou Favre). Il est le frère du naturaliste suisse Élie Bertrand (1712-1790)[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une famille originaire de Toulouse et installée en Suisse à cause de la révocation de l’Édit de Nantes, son père, Élie, est apothicaire et président du consistoire d'Orbe et sa mère se nomme Marie Faure (ou Favre). Il est le frère du naturaliste suisse Élie Bertrand (1712-1790). 
 Nommé pasteur à Orbe, Jean Bertrand s'appliqua surtout aux études agronomiques. Il fut trois fois couronné par la Société économique de Berne. Il est le traducteur du dictionnaire de Philip Miller (1691-1771).
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De l’eau relativement à l’économie rustique, ou traité de l’irrigation des prés, dédié à la société économique de Berne, Avignon, et Lyon, G. Regnault, 1764, in-8°, XVI-176 p. ; 2e éd. (augmentée de la description d’un cultivateur et d’un compas très-utiles pour la formation des rigoles), Paris, chez A.-J. Marchant, 1801 (an IX), in-8°, VIII-136 p. ; traduit en allemand, Nuremberg, 1765 ; par ailleurs auteur d’un mémoire sur le même sujet, inséré dans les Mémoires de la Société économique de Berne, 1761, t. II, 3e partie, p. 483-535
 Essais sur l’esprit de la législation favorable à l’agriculture, à la population, au commerce, aux arts et aux métiers [pièces couronnées par la Société économique de Berne], Berne, Société typographique, 1766, in-8°, VI-379 p. ; nouvelle édition, Paris, Dessaint, 1776, 2 tomes en 1 vol. in-8° ; traduit en anglais en 1772 (Essays on the spirit of legislation, in the encouragement of agriculture, population, manufactures, and commerce…, Londres, W. Nicoll, 1772, in-8°, XI-479 p.) ; inséré dans les Mémoires de la Société économique de Berne, 1765, tome VI, 2e partie, p. 45-139
